--- a/biology/Botanique/Limonium_dichotomum/Limonium_dichotomum.xlsx
+++ b/biology/Botanique/Limonium_dichotomum/Limonium_dichotomum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limonium dichotomum est une espèce de plante de la famille des Plumbaginaceae et du genre Limonium.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Limonium dichotomum est une plante vivace, avec des feuilles de 30 à 95 mm de long et de 15 à 30 mm de large. La fleur est de petite taille, de couleur violacée ou bleutée et avec des corolles de 7 à 8 mm et de 1,7 à 2 mm. Les épis mesurent de 10 à 40 mm. Elle est très semblable à Limonium erectum (es) et Limonium toletanum.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Limonium dichotomum est une espèce endémique du centre de la péninsule ibérique, la communauté de Madrid et la Castille-La Manche. Sa présence est fréquente dans les sols salins ou sur les collines de gypse[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limonium dichotomum est une espèce endémique du centre de la péninsule ibérique, la communauté de Madrid et la Castille-La Manche. Sa présence est fréquente dans les sols salins ou sur les collines de gypse.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur a pour parasites Phaiogramma etruscaria, Gymnoscelis rufifasciata, Eupithecia gemellata (en). La feuille a pour parasites Eupithecia gypsophilata, Casilda consecraria, Microloxia herbaria[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur a pour parasites Phaiogramma etruscaria, Gymnoscelis rufifasciata, Eupithecia gemellata (en). La feuille a pour parasites Eupithecia gypsophilata, Casilda consecraria, Microloxia herbaria.
 </t>
         </is>
       </c>
